--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1758.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1758.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.09832389258433</v>
+        <v>0.3346172571182251</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.8125601410865784</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.692781197041321</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.207630096784621</v>
+        <v>1.048319697380066</v>
       </c>
     </row>
   </sheetData>
